--- a/docs/Dot4/CTS6326_Test cases_detail.xlsx
+++ b/docs/Dot4/CTS6326_Test cases_detail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trand\OneDrive\Documents\TTDATN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8FF625-FF1A-4F1E-8F30-EC9FA274D21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F790E2BC-BA66-4D12-B46F-3F2AD1F05086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="22" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="17" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="480">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -1822,6 +1822,18 @@
   </si>
   <si>
     <t xml:space="preserve">Thông báo không thành công do giá phải lớn hơn 0 </t>
+  </si>
+  <si>
+    <t>Thông báo email không hợp lệ</t>
+  </si>
+  <si>
+    <t>Thông báo không tìm thấy email</t>
+  </si>
+  <si>
+    <t>Thông báo trường thông tin không được để trắng</t>
+  </si>
+  <si>
+    <t>Hiển thị yêu cầu đăng ký gói và nút chuyển đến trang đăng ký gói</t>
   </si>
 </sst>
 </file>
@@ -4821,7 +4833,7 @@
   <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4890,7 +4902,7 @@
         <v>90</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>91</v>
+        <v>478</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>233</v>
@@ -5372,7 +5384,7 @@
   <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="A1:XFD1048576"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5439,7 +5451,7 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>479</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>233</v>
@@ -5534,7 +5546,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5727,7 +5739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F3692C-B461-4F7E-AB6B-ADDB832BADF2}">
   <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -6090,7 +6102,7 @@
   <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7447,7 +7459,7 @@
   <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7589,7 +7601,7 @@
   <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7731,7 +7743,7 @@
   <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7852,7 +7864,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>32</v>
+        <v>476</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>233</v>
@@ -8060,7 +8072,7 @@
   <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="A1:XFD1048576"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8342,7 +8354,7 @@
   <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="A1:XFD1048576"/>
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8730,8 +8742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129441B7-3ADD-4C4E-8F13-28F19FD8F766}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9448,8 +9460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76B0235-1DD9-4C5D-B9A5-054F74242894}">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9544,7 +9556,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>44</v>
+        <v>477</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>233</v>
@@ -9906,7 +9918,7 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10119,7 +10131,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10308,7 +10320,7 @@
   <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10449,7 +10461,7 @@
   <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
